--- a/templates/InstrumentSign_New.xlsx
+++ b/templates/InstrumentSign_New.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlam\Documents\My Project\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlam\OneDrive - Illumina, Inc\Documents\Github\Integration-1-Prep-Project\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B76B549-1875-4D66-8F89-45CFBABC11E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45AAEBA-8486-42D3-8330-D64A39C37BF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Instrument SN:</t>
   </si>
@@ -51,17 +51,32 @@
     <t>Please fill in the info on the table below</t>
   </si>
   <si>
-    <t>A01408</t>
-  </si>
-  <si>
-    <t>APXCAS2101653</t>
+    <t>CA Version</t>
+  </si>
+  <si>
+    <t>CA Versions</t>
+  </si>
+  <si>
+    <t>CA 1.5</t>
+  </si>
+  <si>
+    <t>CA 2.0 (MAH)</t>
+  </si>
+  <si>
+    <t>CA 1.0</t>
+  </si>
+  <si>
+    <t>A01549</t>
+  </si>
+  <si>
+    <t>APXCAS2126010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,12 +136,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Georgia Pro Black"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="30"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -280,24 +313,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -311,38 +358,113 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9F6FB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD9F6FB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -352,6 +474,16 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92169FE8-03D8-44CD-8AEE-B3D4638294B2}" name="Table1" displayName="Table1" ref="F2:F6" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="F2:F6" xr:uid="{85BC3AA1-A6B8-49AC-8BE6-4490203BE5FC}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{F32BC1FE-532A-438D-9878-4240CC620E27}" name="CA Versions" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -617,63 +749,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.453125" customWidth="1"/>
     <col min="2" max="2" width="28.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>20522422</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="13">
+        <v>20565151</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B7" s="21">
+        <f>IF(MOD(_xlfn.NUMBERVALUE(RIGHT(B4,4)),3)=0,3,MOD(_xlfn.NUMBERVALUE(RIGHT(B4,4)),3))</f>
         <v>1</v>
       </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="4QT7ytanRY11LswPyPZsqwtFnYHND4pthth+Mom1aR6c1TVjdaeHgK/d7aBJEUmoLSCrVyfRw2ljitDNYajt1w==" saltValue="r9w69R4GudD6kli8K3CB/w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{6BB99550-9624-4F31-8A06-0D863C5FC8A4}">
+      <formula1>$F$3:$F$6</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -682,7 +889,7 @@
   <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -694,74 +901,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="str">
+      <c r="B1" s="9" t="str">
         <f xml:space="preserve"> "PRO:"&amp;Input!B3</f>
-        <v>PRO:20522422</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="str">
+        <v>PRO:20565151</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="9" t="str">
         <f>B1</f>
-        <v>PRO:20522422</v>
+        <v>PRO:20565151</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="90.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="str">
+      <c r="B2" s="2" t="str">
         <f>Input!B4</f>
-        <v>A01408</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="str">
+        <v>A01549</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="str">
         <f>B2</f>
-        <v>A01408</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="151" x14ac:dyDescent="0.35">
-      <c r="B3" s="10" t="str">
-        <f>"*"&amp;B2&amp;"*"</f>
-        <v>*A01408*</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10" t="str">
-        <f>"*"&amp;D2&amp;"*"</f>
-        <v>*A01408*</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="str">
+        <v>A01549</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="str">
         <f>Input!B5</f>
-        <v>APXCAS2101653</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12" t="str">
-        <f>B4</f>
-        <v>APXCAS2101653</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="64.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="13" t="str">
-        <f>B4</f>
-        <v>APXCAS2101653</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="str">
-        <f>D4</f>
-        <v>APXCAS2101653</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="14" t="str">
-        <f>"Cell# "&amp;Input!B6</f>
+        <v>APXCAS2126010</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="str">
+        <f>B3</f>
+        <v>APXCAS2126010</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="64.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="str">
+        <f>B3</f>
+        <v>APXCAS2126010</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="str">
+        <f>D3</f>
+        <v>APXCAS2126010</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="str">
+        <f>Input!B6</f>
+        <v>CA 1.5</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="8" t="str">
+        <f>B5</f>
+        <v>CA 1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="10" t="str">
+        <f>"Cell# "&amp;Input!B7</f>
         <v>Cell# 1</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14" t="str">
+      <c r="C6" s="7"/>
+      <c r="D6" s="10" t="str">
         <f>B6</f>
         <v>Cell# 1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ddeCHk9DjLJ1t1KFBwOEZO8wmwEyEfPZ0F1FrRzYR/Xc/d0/Hc7ooknGdvLvIHKXHuqZaeRP60HiOfKqij/g+w==" saltValue="bXG4JX9RBdRfZusyFuJabw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/tKd7zyIL2ikjeKPWozriFnIzSvvJRvZ8zSC+evLMOxXsJPBwqK8m7ebOWYhouuqtA1S/Wt7yVcX/GXPYdZlWw==" saltValue="Phyqz+GiFI78OJtDEZclJw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{134734E7-D59D-414F-928A-6910B8252047}">
+            <xm:f>Input!$B$6=Input!$F$5</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="4" tint="-0.24994659260841701"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFD9F6FB"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{DEADF0A7-26E8-4632-9781-796282437CC8}">
+            <xm:f>Input!$B$6=Input!$F$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="9" tint="-0.499984740745262"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B2:B5 D2:D5</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/templates/InstrumentSign_New.xlsx
+++ b/templates/InstrumentSign_New.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlam\OneDrive - Illumina, Inc\Documents\Github\Integration-1-Prep-Project\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45AAEBA-8486-42D3-8330-D64A39C37BF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237B85E7-25BA-41CD-A204-9875C70D5A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -66,10 +66,10 @@
     <t>CA 1.0</t>
   </si>
   <si>
-    <t>A01549</t>
-  </si>
-  <si>
-    <t>APXCAS2126010</t>
+    <t>A01593</t>
+  </si>
+  <si>
+    <t>APXCAS2131001</t>
   </si>
 </sst>
 </file>
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13">
-        <v>20565151</v>
+        <v>20578713</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="B7" s="21">
         <f>IF(MOD(_xlfn.NUMBERVALUE(RIGHT(B4,4)),3)=0,3,MOD(_xlfn.NUMBERVALUE(RIGHT(B4,4)),3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -903,45 +903,45 @@
     <row r="1" spans="2:4" ht="38.5" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="str">
         <f xml:space="preserve"> "PRO:"&amp;Input!B3</f>
-        <v>PRO:20565151</v>
+        <v>PRO:20578713</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="9" t="str">
         <f>B1</f>
-        <v>PRO:20565151</v>
+        <v>PRO:20578713</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="90.5" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="str">
         <f>Input!B4</f>
-        <v>A01549</v>
+        <v>A01593</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2" t="str">
         <f>B2</f>
-        <v>A01549</v>
+        <v>A01593</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="str">
         <f>Input!B5</f>
-        <v>APXCAS2126010</v>
+        <v>APXCAS2131001</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="str">
         <f>B3</f>
-        <v>APXCAS2126010</v>
+        <v>APXCAS2131001</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="64.5" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="str">
         <f>B3</f>
-        <v>APXCAS2126010</v>
+        <v>APXCAS2131001</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="str">
         <f>D3</f>
-        <v>APXCAS2126010</v>
+        <v>APXCAS2131001</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
@@ -958,12 +958,12 @@
     <row r="6" spans="2:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="str">
         <f>"Cell# "&amp;Input!B7</f>
-        <v>Cell# 1</v>
+        <v>Cell# 3</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="10" t="str">
         <f>B6</f>
-        <v>Cell# 1</v>
+        <v>Cell# 3</v>
       </c>
     </row>
   </sheetData>

--- a/templates/InstrumentSign_New.xlsx
+++ b/templates/InstrumentSign_New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlam\OneDrive - Illumina, Inc\Documents\Github\Integration-1-Prep-Project\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237B85E7-25BA-41CD-A204-9875C70D5A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B85E75-BF82-4D00-A7FC-6A2296F921D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,10 +66,10 @@
     <t>CA 1.0</t>
   </si>
   <si>
-    <t>A01593</t>
-  </si>
-  <si>
-    <t>APXCAS2131001</t>
+    <t>A01603</t>
+  </si>
+  <si>
+    <t>APXCAS2131011</t>
   </si>
 </sst>
 </file>
@@ -752,7 +752,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13">
-        <v>20578713</v>
+        <v>20578803</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="B7" s="21">
         <f>IF(MOD(_xlfn.NUMBERVALUE(RIGHT(B4,4)),3)=0,3,MOD(_xlfn.NUMBERVALUE(RIGHT(B4,4)),3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -903,45 +903,45 @@
     <row r="1" spans="2:4" ht="38.5" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="str">
         <f xml:space="preserve"> "PRO:"&amp;Input!B3</f>
-        <v>PRO:20578713</v>
+        <v>PRO:20578803</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="9" t="str">
         <f>B1</f>
-        <v>PRO:20578713</v>
+        <v>PRO:20578803</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="90.5" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="str">
         <f>Input!B4</f>
-        <v>A01593</v>
+        <v>A01603</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2" t="str">
         <f>B2</f>
-        <v>A01593</v>
+        <v>A01603</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="str">
         <f>Input!B5</f>
-        <v>APXCAS2131001</v>
+        <v>APXCAS2131011</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="str">
         <f>B3</f>
-        <v>APXCAS2131001</v>
+        <v>APXCAS2131011</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="64.5" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="str">
         <f>B3</f>
-        <v>APXCAS2131001</v>
+        <v>APXCAS2131011</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="str">
         <f>D3</f>
-        <v>APXCAS2131001</v>
+        <v>APXCAS2131011</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
@@ -958,18 +958,18 @@
     <row r="6" spans="2:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="str">
         <f>"Cell# "&amp;Input!B7</f>
-        <v>Cell# 3</v>
+        <v>Cell# 1</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="10" t="str">
         <f>B6</f>
-        <v>Cell# 3</v>
+        <v>Cell# 1</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/tKd7zyIL2ikjeKPWozriFnIzSvvJRvZ8zSC+evLMOxXsJPBwqK8m7ebOWYhouuqtA1S/Wt7yVcX/GXPYdZlWw==" saltValue="Phyqz+GiFI78OJtDEZclJw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/templates/InstrumentSign_New.xlsx
+++ b/templates/InstrumentSign_New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlam\OneDrive - Illumina, Inc\Documents\Github\Integration-1-Prep-Project\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B85E75-BF82-4D00-A7FC-6A2296F921D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC65D96-995A-4757-B144-7B5C043B28C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,10 +66,10 @@
     <t>CA 1.0</t>
   </si>
   <si>
-    <t>A01603</t>
-  </si>
-  <si>
-    <t>APXCAS2131011</t>
+    <t>A01605</t>
+  </si>
+  <si>
+    <t>APXCAS2134002</t>
   </si>
 </sst>
 </file>
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13">
-        <v>20578803</v>
+        <v>20578805</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="B7" s="21">
         <f>IF(MOD(_xlfn.NUMBERVALUE(RIGHT(B4,4)),3)=0,3,MOD(_xlfn.NUMBERVALUE(RIGHT(B4,4)),3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -903,45 +903,45 @@
     <row r="1" spans="2:4" ht="38.5" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="str">
         <f xml:space="preserve"> "PRO:"&amp;Input!B3</f>
-        <v>PRO:20578803</v>
+        <v>PRO:20578805</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="9" t="str">
         <f>B1</f>
-        <v>PRO:20578803</v>
+        <v>PRO:20578805</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="90.5" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="str">
         <f>Input!B4</f>
-        <v>A01603</v>
+        <v>A01605</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2" t="str">
         <f>B2</f>
-        <v>A01603</v>
+        <v>A01605</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="str">
         <f>Input!B5</f>
-        <v>APXCAS2131011</v>
+        <v>APXCAS2134002</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="str">
         <f>B3</f>
-        <v>APXCAS2131011</v>
+        <v>APXCAS2134002</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="64.5" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="str">
         <f>B3</f>
-        <v>APXCAS2131011</v>
+        <v>APXCAS2134002</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="str">
         <f>D3</f>
-        <v>APXCAS2131011</v>
+        <v>APXCAS2134002</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
@@ -958,12 +958,12 @@
     <row r="6" spans="2:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="str">
         <f>"Cell# "&amp;Input!B7</f>
-        <v>Cell# 1</v>
+        <v>Cell# 3</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="10" t="str">
         <f>B6</f>
-        <v>Cell# 1</v>
+        <v>Cell# 3</v>
       </c>
     </row>
   </sheetData>

--- a/templates/InstrumentSign_New.xlsx
+++ b/templates/InstrumentSign_New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlam\OneDrive - Illumina, Inc\Documents\Github\Integration-1-Prep-Project\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC65D96-995A-4757-B144-7B5C043B28C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC602B2-D20E-4501-9BE5-D827CB40D282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Instrument SN:</t>
   </si>
@@ -66,10 +66,7 @@
     <t>CA 1.0</t>
   </si>
   <si>
-    <t>A01605</t>
-  </si>
-  <si>
-    <t>APXCAS2134002</t>
+    <t>A01606</t>
   </si>
 </sst>
 </file>
@@ -789,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13">
-        <v>20578805</v>
+        <v>20581576</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -818,9 +815,7 @@
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="B5" s="15"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -848,7 +843,7 @@
       </c>
       <c r="B7" s="21">
         <f>IF(MOD(_xlfn.NUMBERVALUE(RIGHT(B4,4)),3)=0,3,MOD(_xlfn.NUMBERVALUE(RIGHT(B4,4)),3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -903,45 +898,45 @@
     <row r="1" spans="2:4" ht="38.5" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="str">
         <f xml:space="preserve"> "PRO:"&amp;Input!B3</f>
-        <v>PRO:20578805</v>
+        <v>PRO:20581576</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="9" t="str">
         <f>B1</f>
-        <v>PRO:20578805</v>
+        <v>PRO:20581576</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="90.5" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="str">
         <f>Input!B4</f>
-        <v>A01605</v>
+        <v>A01606</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2" t="str">
         <f>B2</f>
-        <v>A01605</v>
+        <v>A01606</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="5">
         <f>Input!B5</f>
-        <v>APXCAS2134002</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="5" t="str">
+      <c r="D3" s="5">
         <f>B3</f>
-        <v>APXCAS2134002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="64.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="str">
+      <c r="B4" s="6">
         <f>B3</f>
-        <v>APXCAS2134002</v>
+        <v>0</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6" t="str">
+      <c r="D4" s="6">
         <f>D3</f>
-        <v>APXCAS2134002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
@@ -958,12 +953,12 @@
     <row r="6" spans="2:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="str">
         <f>"Cell# "&amp;Input!B7</f>
-        <v>Cell# 3</v>
+        <v>Cell# 1</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="10" t="str">
         <f>B6</f>
-        <v>Cell# 3</v>
+        <v>Cell# 1</v>
       </c>
     </row>
   </sheetData>

--- a/templates/InstrumentSign_New.xlsx
+++ b/templates/InstrumentSign_New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlam\OneDrive - Illumina, Inc\Documents\Github\Integration-1-Prep-Project\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC602B2-D20E-4501-9BE5-D827CB40D282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED336E-711F-4F97-A390-09A1BDD5DB94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Instrument SN:</t>
   </si>
@@ -66,7 +66,10 @@
     <t>CA 1.0</t>
   </si>
   <si>
-    <t>A01606</t>
+    <t>A01612</t>
+  </si>
+  <si>
+    <t>APXCAS2134009</t>
   </si>
 </sst>
 </file>
@@ -786,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13">
-        <v>20581576</v>
+        <v>20583536</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -815,7 +818,9 @@
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -898,45 +903,45 @@
     <row r="1" spans="2:4" ht="38.5" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="str">
         <f xml:space="preserve"> "PRO:"&amp;Input!B3</f>
-        <v>PRO:20581576</v>
+        <v>PRO:20583536</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="9" t="str">
         <f>B1</f>
-        <v>PRO:20581576</v>
+        <v>PRO:20583536</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="90.5" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="str">
         <f>Input!B4</f>
-        <v>A01606</v>
+        <v>A01612</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2" t="str">
         <f>B2</f>
-        <v>A01606</v>
+        <v>A01612</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="5">
+      <c r="B3" s="5" t="str">
         <f>Input!B5</f>
-        <v>0</v>
+        <v>APXCAS2134009</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="5">
+      <c r="D3" s="5" t="str">
         <f>B3</f>
-        <v>0</v>
+        <v>APXCAS2134009</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="64.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="6">
+      <c r="B4" s="6" t="str">
         <f>B3</f>
-        <v>0</v>
+        <v>APXCAS2134009</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6">
+      <c r="D4" s="6" t="str">
         <f>D3</f>
-        <v>0</v>
+        <v>APXCAS2134009</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">

--- a/templates/InstrumentSign_New.xlsx
+++ b/templates/InstrumentSign_New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlam\OneDrive - Illumina, Inc\Documents\Github\Integration-1-Prep-Project\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED336E-711F-4F97-A390-09A1BDD5DB94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5A4E4B-1A1C-4DB9-8507-5A3C124B8C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/templates/InstrumentSign_New.xlsx
+++ b/templates/InstrumentSign_New.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlam\OneDrive - Illumina, Inc\Documents\Github\Integration-1-Prep-Project\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5A4E4B-1A1C-4DB9-8507-5A3C124B8C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA7274D-7BEF-4D0D-ADD3-5A1CE9330422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Instrument SN:</t>
   </si>
@@ -66,10 +66,7 @@
     <t>CA 1.0</t>
   </si>
   <si>
-    <t>A01612</t>
-  </si>
-  <si>
-    <t>APXCAS2134009</t>
+    <t>A01672</t>
   </si>
 </sst>
 </file>
@@ -751,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -789,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13">
-        <v>20583536</v>
+        <v>20595735</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -818,8 +815,8 @@
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>11</v>
+      <c r="B5" s="15">
+        <v>12341</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -888,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -903,45 +900,45 @@
     <row r="1" spans="2:4" ht="38.5" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="str">
         <f xml:space="preserve"> "PRO:"&amp;Input!B3</f>
-        <v>PRO:20583536</v>
+        <v>PRO:20595735</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="9" t="str">
         <f>B1</f>
-        <v>PRO:20583536</v>
+        <v>PRO:20595735</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="90.5" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="str">
         <f>Input!B4</f>
-        <v>A01612</v>
+        <v>A01672</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2" t="str">
         <f>B2</f>
-        <v>A01612</v>
+        <v>A01672</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="5">
         <f>Input!B5</f>
-        <v>APXCAS2134009</v>
+        <v>12341</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="5" t="str">
+      <c r="D3" s="5">
         <f>B3</f>
-        <v>APXCAS2134009</v>
+        <v>12341</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="64.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="str">
+      <c r="B4" s="6">
         <f>B3</f>
-        <v>APXCAS2134009</v>
+        <v>12341</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6" t="str">
+      <c r="D4" s="6">
         <f>D3</f>
-        <v>APXCAS2134009</v>
+        <v>12341</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
